--- a/non-linear 3-degree regression models experimental results/e3000_CartPole__compare.xlsx
+++ b/non-linear 3-degree regression models experimental results/e3000_CartPole__compare.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="31">
   <si>
     <t>domain</t>
   </si>
@@ -70,25 +70,25 @@
     <t>[0,0]</t>
   </si>
   <si>
+    <t>[0,0] | [1,0]</t>
+  </si>
+  <si>
     <t>SIFU5</t>
   </si>
   <si>
     <t>[1,0] | [0,0]</t>
   </si>
   <si>
-    <t>[0,0] | [1,0]</t>
+    <t>[1,1]</t>
   </si>
   <si>
-    <t>[1,1]</t>
+    <t>[1,0]</t>
   </si>
   <si>
     <t>[1,1] | [1,0]</t>
   </si>
   <si>
     <t>[1,0] | [1,1]</t>
-  </si>
-  <si>
-    <t>[1,0]</t>
   </si>
   <si>
     <t>candidate</t>
@@ -180,8 +180,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N51" totalsRowShown="0">
-  <autoFilter ref="A1:N51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N54" totalsRowShown="0">
+  <autoFilter ref="A1:N54"/>
   <tableColumns count="14">
     <tableColumn id="1" name="domain"/>
     <tableColumn id="2" name="seed"/>
@@ -560,13 +560,13 @@
         <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -575,10 +575,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>118.657112121582</v>
+        <v>42.3281192779541</v>
       </c>
       <c r="N2">
-        <v>118.657112121582</v>
+        <v>42.3281192779541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -598,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
         <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -616,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>49.36623573303223</v>
+        <v>7.095813751220703</v>
       </c>
       <c r="M3">
-        <v>2.552032470703125</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="N3">
-        <v>51.91826820373535</v>
+        <v>9.09423828125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>28.01036834716797</v>
+        <v>18.99957656860352</v>
       </c>
       <c r="N4">
-        <v>28.01036834716797</v>
+        <v>18.99957656860352</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -686,13 +686,13 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -704,13 +704,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>7.001161575317383</v>
+        <v>7.371187210083008</v>
       </c>
       <c r="M5">
-        <v>18.64862442016602</v>
+        <v>5.997896194458008</v>
       </c>
       <c r="N5">
-        <v>25.6497859954834</v>
+        <v>13.36908340454102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -736,13 +736,13 @@
         <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -751,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>60.40811538696289</v>
+        <v>17.0900821685791</v>
       </c>
       <c r="N6">
-        <v>60.40811538696289</v>
+        <v>17.0900821685791</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -792,13 +792,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>10.01715660095215</v>
+        <v>4.103422164916992</v>
       </c>
       <c r="M7">
-        <v>15.01727104187012</v>
+        <v>2.003908157348633</v>
       </c>
       <c r="N7">
-        <v>25.03442764282227</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>20.00093460083008</v>
+        <v>24.05667304992676</v>
       </c>
       <c r="N8">
-        <v>20.00093460083008</v>
+        <v>24.05667304992676</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -862,13 +862,13 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -880,13 +880,13 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>4.983425140380859</v>
+        <v>5.103588104248047</v>
       </c>
       <c r="M9">
-        <v>8.924722671508789</v>
+        <v>4.896163940429688</v>
       </c>
       <c r="N9">
-        <v>13.90814781188965</v>
+        <v>9.999752044677734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -912,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.61757850646973</v>
+        <v>10.90121269226074</v>
       </c>
       <c r="N10">
-        <v>22.61757850646973</v>
+        <v>10.90121269226074</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -950,13 +950,13 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -968,13 +968,13 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>12.53962516784668</v>
+        <v>3.076791763305664</v>
       </c>
       <c r="M11">
-        <v>12.28666305541992</v>
+        <v>3.995180130004883</v>
       </c>
       <c r="N11">
-        <v>24.8262882232666</v>
+        <v>7.071971893310547</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1000,10 +1000,10 @@
         <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>156.9228172302246</v>
+        <v>37.90283203125</v>
       </c>
       <c r="N12">
-        <v>156.9228172302246</v>
+        <v>37.90283203125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1038,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" t="b">
         <v>1</v>
@@ -1056,13 +1056,13 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>36.23461723327637</v>
+        <v>7.185459136962891</v>
       </c>
       <c r="M13">
-        <v>7.007598876953125</v>
+        <v>1.999139785766602</v>
       </c>
       <c r="N13">
-        <v>43.24221611022949</v>
+        <v>9.184598922729492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1088,13 +1088,13 @@
         <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I14" t="b">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>46.51045799255371</v>
+        <v>37.92071342468262</v>
       </c>
       <c r="N14">
-        <v>46.51045799255371</v>
+        <v>37.92071342468262</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1126,13 +1126,13 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1144,13 +1144,13 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>11.00254058837891</v>
+        <v>10.63990592956543</v>
       </c>
       <c r="M15">
-        <v>6.996631622314453</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N15">
-        <v>17.99917221069336</v>
+        <v>15.6397819519043</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1176,7 +1176,7 @@
         <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I16" t="b">
         <v>1</v>
@@ -1191,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>89.86639976501465</v>
+        <v>14.51659202575684</v>
       </c>
       <c r="N16">
-        <v>89.86639976501465</v>
+        <v>14.51659202575684</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1214,13 +1214,13 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
         <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
@@ -1232,13 +1232,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>15.05875587463379</v>
+        <v>4.001140594482422</v>
       </c>
       <c r="M17">
-        <v>13.00621032714844</v>
+        <v>2.997398376464844</v>
       </c>
       <c r="N17">
-        <v>28.06496620178223</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I18" t="b">
         <v>1</v>
@@ -1279,10 +1279,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>64.70441818237305</v>
+        <v>11.97648048400879</v>
       </c>
       <c r="N18">
-        <v>64.70441818237305</v>
+        <v>11.97648048400879</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1302,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I19" t="b">
         <v>1</v>
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>8.997440338134766</v>
+        <v>3.211498260498047</v>
       </c>
       <c r="M19">
-        <v>10.01811027526855</v>
+        <v>1.978397369384766</v>
       </c>
       <c r="N19">
-        <v>19.01555061340332</v>
+        <v>5.189895629882812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>25.03204345703125</v>
+        <v>10.02907752990723</v>
       </c>
       <c r="N20">
-        <v>25.03204345703125</v>
+        <v>10.02907752990723</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1390,7 +1390,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>20</v>
@@ -1408,13 +1408,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>5.995035171508789</v>
+        <v>1.992225646972656</v>
       </c>
       <c r="M21">
-        <v>8.003473281860352</v>
+        <v>3.690958023071289</v>
       </c>
       <c r="N21">
-        <v>13.99850845336914</v>
+        <v>5.683183670043945</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1437,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>88.8822078704834</v>
+        <v>30.10201454162598</v>
       </c>
       <c r="N22">
-        <v>88.8822078704834</v>
+        <v>30.10201454162598</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1478,31 +1478,31 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="b">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>40.54021835327148</v>
+        <v>7.980585098266602</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.998662948608398</v>
       </c>
       <c r="N23">
-        <v>40.54021835327148</v>
+        <v>9.979248046875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1525,13 +1525,16 @@
         <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
       </c>
       <c r="I24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1540,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>49.91316795349121</v>
+        <v>11.51871681213379</v>
       </c>
       <c r="N24">
-        <v>49.91316795349121</v>
+        <v>11.51871681213379</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1563,13 +1566,13 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I25" t="b">
         <v>1</v>
@@ -1581,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>20.57337760925293</v>
+        <v>8.001089096069336</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.57337760925293</v>
+        <v>8.001089096069336</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1610,11 +1613,11 @@
         <v>15</v>
       </c>
       <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" t="s">
         <v>23</v>
       </c>
-      <c r="H26" t="s">
-        <v>18</v>
-      </c>
       <c r="I26" t="b">
         <v>1</v>
       </c>
@@ -1628,10 +1631,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>41.39804840087891</v>
+        <v>17.12965965270996</v>
       </c>
       <c r="N26">
-        <v>41.39804840087891</v>
+        <v>17.12965965270996</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1651,14 +1654,14 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" t="s">
         <v>23</v>
       </c>
-      <c r="H27" t="s">
-        <v>18</v>
-      </c>
       <c r="I27" t="b">
         <v>1</v>
       </c>
@@ -1669,13 +1672,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>6.000041961669922</v>
+        <v>4.130125045776367</v>
       </c>
       <c r="M27">
-        <v>6.520986557006836</v>
+        <v>3.145694732666016</v>
       </c>
       <c r="N27">
-        <v>12.52102851867676</v>
+        <v>7.275819778442383</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1698,11 +1701,11 @@
         <v>15</v>
       </c>
       <c r="G28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" t="s">
         <v>23</v>
       </c>
-      <c r="H28" t="s">
-        <v>19</v>
-      </c>
       <c r="I28" t="b">
         <v>1</v>
       </c>
@@ -1716,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>29.10232543945312</v>
+        <v>11.51871681213379</v>
       </c>
       <c r="N28">
-        <v>29.10232543945312</v>
+        <v>11.51871681213379</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1739,14 +1742,14 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" t="s">
-        <v>19</v>
-      </c>
       <c r="I29" t="b">
         <v>1</v>
       </c>
@@ -1757,13 +1760,13 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>12.46166229248047</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="M29">
-        <v>16.99090003967285</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N29">
-        <v>29.45256233215332</v>
+        <v>5.999565124511719</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1786,10 +1789,10 @@
         <v>15</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" t="b">
         <v>1</v>
@@ -1804,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>38.45810890197754</v>
+        <v>9.000301361083984</v>
       </c>
       <c r="N30">
-        <v>38.45810890197754</v>
+        <v>9.000301361083984</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1827,13 +1830,13 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I31" t="b">
         <v>1</v>
@@ -1845,13 +1848,13 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>7.121801376342773</v>
+        <v>2.107143402099609</v>
       </c>
       <c r="M31">
-        <v>6.997585296630859</v>
+        <v>3.998517990112305</v>
       </c>
       <c r="N31">
-        <v>14.11938667297363</v>
+        <v>6.105661392211914</v>
       </c>
     </row>
   </sheetData>
@@ -1864,7 +1867,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1952,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>118.657112121582</v>
+        <v>42.3281192779541</v>
       </c>
       <c r="N2">
-        <v>118.657112121582</v>
+        <v>42.3281192779541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -1966,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -1990,16 +1993,16 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>49.36623573303223</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2.552032470703125</v>
+        <v>42.3281192779541</v>
       </c>
       <c r="N3">
-        <v>51.91826820373535</v>
+        <v>42.3281192779541</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -2010,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -2019,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
@@ -2037,13 +2040,13 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>49.36623573303223</v>
+        <v>7.095813751220703</v>
       </c>
       <c r="M4">
-        <v>2.552032470703125</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="N4">
-        <v>51.91826820373535</v>
+        <v>9.09423828125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2054,22 +2057,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
         <v>100</v>
@@ -2078,16 +2081,16 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.095813751220703</v>
       </c>
       <c r="M5">
-        <v>28.01036834716797</v>
+        <v>1.998424530029297</v>
       </c>
       <c r="N5">
-        <v>28.01036834716797</v>
+        <v>9.09423828125</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2098,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -2122,16 +2125,16 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>7.001161575317383</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>18.64862442016602</v>
+        <v>18.99957656860352</v>
       </c>
       <c r="N6">
-        <v>25.6497859954834</v>
+        <v>18.99957656860352</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2142,19 +2145,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0.4</v>
@@ -2169,13 +2172,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>7.001161575317383</v>
+        <v>7.371187210083008</v>
       </c>
       <c r="M7">
-        <v>18.64862442016602</v>
+        <v>5.997896194458008</v>
       </c>
       <c r="N7">
-        <v>25.6497859954834</v>
+        <v>13.36908340454102</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2186,22 +2189,22 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I8">
         <v>100</v>
@@ -2210,16 +2213,16 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.371187210083008</v>
       </c>
       <c r="M8">
-        <v>60.40811538696289</v>
+        <v>5.997896194458008</v>
       </c>
       <c r="N8">
-        <v>60.40811538696289</v>
+        <v>13.36908340454102</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2230,19 +2233,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0.6</v>
@@ -2254,16 +2257,16 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>10.01715660095215</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>15.01727104187012</v>
+        <v>17.0900821685791</v>
       </c>
       <c r="N9">
-        <v>25.03442764282227</v>
+        <v>17.0900821685791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2274,19 +2277,19 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0.6</v>
@@ -2298,16 +2301,16 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>10.01715660095215</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.01727104187012</v>
+        <v>17.0900821685791</v>
       </c>
       <c r="N10">
-        <v>25.03442764282227</v>
+        <v>17.0900821685791</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2318,22 +2321,22 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I11">
         <v>100</v>
@@ -2342,16 +2345,16 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>4.103422164916992</v>
       </c>
       <c r="M11">
-        <v>20.00093460083008</v>
+        <v>2.003908157348633</v>
       </c>
       <c r="N11">
-        <v>20.00093460083008</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2362,22 +2365,22 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I12">
         <v>100</v>
@@ -2389,13 +2392,13 @@
         <v>2</v>
       </c>
       <c r="L12">
-        <v>4.983425140380859</v>
+        <v>4.103422164916992</v>
       </c>
       <c r="M12">
-        <v>8.924722671508789</v>
+        <v>2.003908157348633</v>
       </c>
       <c r="N12">
-        <v>13.90814781188965</v>
+        <v>6.107330322265625</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2406,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -2415,7 +2418,7 @@
         <v>16</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -2430,16 +2433,16 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>4.983425140380859</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.924722671508789</v>
+        <v>24.05667304992676</v>
       </c>
       <c r="N13">
-        <v>13.90814781188965</v>
+        <v>24.05667304992676</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2450,22 +2453,22 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I14">
         <v>100</v>
@@ -2474,16 +2477,16 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.103588104248047</v>
       </c>
       <c r="M14">
-        <v>22.61757850646973</v>
+        <v>4.896163940429688</v>
       </c>
       <c r="N14">
-        <v>22.61757850646973</v>
+        <v>9.999752044677734</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2494,22 +2497,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I15">
         <v>100</v>
@@ -2518,16 +2521,16 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.103588104248047</v>
       </c>
       <c r="M15">
-        <v>22.61757850646973</v>
+        <v>4.896163940429688</v>
       </c>
       <c r="N15">
-        <v>22.61757850646973</v>
+        <v>9.999752044677734</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2538,13 +2541,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -2562,16 +2565,16 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>12.53962516784668</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.28666305541992</v>
+        <v>10.90121269226074</v>
       </c>
       <c r="N16">
-        <v>24.8262882232666</v>
+        <v>10.90121269226074</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2582,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
@@ -2606,16 +2609,16 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>12.53962516784668</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>12.28666305541992</v>
+        <v>10.90121269226074</v>
       </c>
       <c r="N17">
-        <v>24.8262882232666</v>
+        <v>10.90121269226074</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2626,22 +2629,22 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>100</v>
@@ -2650,16 +2653,16 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>3.076791763305664</v>
       </c>
       <c r="M18">
-        <v>156.9228172302246</v>
+        <v>3.995180130004883</v>
       </c>
       <c r="N18">
-        <v>156.9228172302246</v>
+        <v>7.071971893310547</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2670,22 +2673,22 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>100</v>
@@ -2697,13 +2700,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>36.23461723327637</v>
+        <v>3.076791763305664</v>
       </c>
       <c r="M19">
-        <v>7.007598876953125</v>
+        <v>3.995180130004883</v>
       </c>
       <c r="N19">
-        <v>43.24221611022949</v>
+        <v>7.071971893310547</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2714,16 +2717,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2738,16 +2741,16 @@
         <v>3</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>36.23461723327637</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>7.007598876953125</v>
+        <v>37.90283203125</v>
       </c>
       <c r="N20">
-        <v>43.24221611022949</v>
+        <v>37.90283203125</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -2758,22 +2761,22 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I21">
         <v>100</v>
@@ -2782,16 +2785,16 @@
         <v>3</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.185459136962891</v>
       </c>
       <c r="M21">
-        <v>46.51045799255371</v>
+        <v>1.999139785766602</v>
       </c>
       <c r="N21">
-        <v>46.51045799255371</v>
+        <v>9.184598922729492</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -2802,22 +2805,22 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I22">
         <v>100</v>
@@ -2826,16 +2829,16 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.185459136962891</v>
       </c>
       <c r="M22">
-        <v>46.51045799255371</v>
+        <v>1.999139785766602</v>
       </c>
       <c r="N22">
-        <v>46.51045799255371</v>
+        <v>9.184598922729492</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -2846,19 +2849,19 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0.4</v>
@@ -2870,16 +2873,16 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>11.00254058837891</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>6.996631622314453</v>
+        <v>37.92071342468262</v>
       </c>
       <c r="N23">
-        <v>17.99917221069336</v>
+        <v>37.92071342468262</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -2890,19 +2893,19 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>20</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
         <v>0.4</v>
@@ -2917,13 +2920,13 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>11.00254058837891</v>
+        <v>10.63990592956543</v>
       </c>
       <c r="M24">
-        <v>6.996631622314453</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N24">
-        <v>17.99917221069336</v>
+        <v>15.6397819519043</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -2934,22 +2937,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I25">
         <v>100</v>
@@ -2958,16 +2961,16 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.63990592956543</v>
       </c>
       <c r="M25">
-        <v>89.86639976501465</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="N25">
-        <v>89.86639976501465</v>
+        <v>15.6397819519043</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2984,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0.6</v>
@@ -3008,10 +3011,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>89.86639976501465</v>
+        <v>14.51659202575684</v>
       </c>
       <c r="N26">
-        <v>89.86639976501465</v>
+        <v>14.51659202575684</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -3022,19 +3025,19 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
         <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0.6</v>
@@ -3046,16 +3049,16 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>15.05875587463379</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>13.00621032714844</v>
+        <v>14.51659202575684</v>
       </c>
       <c r="N27">
-        <v>28.06496620178223</v>
+        <v>14.51659202575684</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -3066,19 +3069,19 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0.6</v>
@@ -3093,13 +3096,13 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>15.05875587463379</v>
+        <v>4.001140594482422</v>
       </c>
       <c r="M28">
-        <v>13.00621032714844</v>
+        <v>2.997398376464844</v>
       </c>
       <c r="N28">
-        <v>28.06496620178223</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -3110,22 +3113,22 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>20</v>
       </c>
       <c r="E29" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I29">
         <v>100</v>
@@ -3134,16 +3137,16 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>4.001140594482422</v>
       </c>
       <c r="M29">
-        <v>64.70441818237305</v>
+        <v>2.997398376464844</v>
       </c>
       <c r="N29">
-        <v>64.70441818237305</v>
+        <v>6.998538970947266</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -3160,13 +3163,13 @@
         <v>20</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
         <v>0.8</v>
@@ -3184,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>64.70441818237305</v>
+        <v>11.97648048400879</v>
       </c>
       <c r="N30">
-        <v>64.70441818237305</v>
+        <v>11.97648048400879</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -3198,19 +3201,19 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0.8</v>
@@ -3222,16 +3225,16 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>8.997440338134766</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>10.01811027526855</v>
+        <v>11.97648048400879</v>
       </c>
       <c r="N31">
-        <v>19.01555061340332</v>
+        <v>11.97648048400879</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -3242,19 +3245,19 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0.8</v>
@@ -3269,13 +3272,13 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>8.997440338134766</v>
+        <v>3.211498260498047</v>
       </c>
       <c r="M32">
-        <v>10.01811027526855</v>
+        <v>1.978397369384766</v>
       </c>
       <c r="N32">
-        <v>19.01555061340332</v>
+        <v>5.189895629882812</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -3286,22 +3289,22 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
         <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I33">
         <v>100</v>
@@ -3310,16 +3313,16 @@
         <v>3</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>3.211498260498047</v>
       </c>
       <c r="M33">
-        <v>25.03204345703125</v>
+        <v>1.978397369384766</v>
       </c>
       <c r="N33">
-        <v>25.03204345703125</v>
+        <v>5.189895629882812</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -3339,7 +3342,7 @@
         <v>20</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -3360,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>25.03204345703125</v>
+        <v>10.02907752990723</v>
       </c>
       <c r="N34">
-        <v>25.03204345703125</v>
+        <v>10.02907752990723</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -3374,16 +3377,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" t="s">
         <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
@@ -3398,16 +3401,16 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L35">
-        <v>5.995035171508789</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>8.003473281860352</v>
+        <v>10.02907752990723</v>
       </c>
       <c r="N35">
-        <v>13.99850845336914</v>
+        <v>10.02907752990723</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -3418,7 +3421,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
         <v>20</v>
@@ -3427,7 +3430,7 @@
         <v>20</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -3445,13 +3448,13 @@
         <v>2</v>
       </c>
       <c r="L36">
-        <v>5.995035171508789</v>
+        <v>1.992225646972656</v>
       </c>
       <c r="M36">
-        <v>8.003473281860352</v>
+        <v>3.690958023071289</v>
       </c>
       <c r="N36">
-        <v>13.99850845336914</v>
+        <v>5.683183670043945</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -3462,22 +3465,22 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I37">
         <v>100</v>
@@ -3486,16 +3489,16 @@
         <v>3</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>1.992225646972656</v>
       </c>
       <c r="M37">
-        <v>88.8822078704834</v>
+        <v>3.690958023071289</v>
       </c>
       <c r="N37">
-        <v>88.8822078704834</v>
+        <v>5.683183670043945</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -3506,19 +3509,19 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0.2</v>
@@ -3530,16 +3533,16 @@
         <v>3</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38">
-        <v>40.54021835327148</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>30.10201454162598</v>
       </c>
       <c r="N38">
-        <v>40.54021835327148</v>
+        <v>30.10201454162598</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -3550,22 +3553,22 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
         <v>100</v>
@@ -3574,16 +3577,16 @@
         <v>3</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>20.57337760925293</v>
+        <v>7.980585098266602</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>1.998662948608398</v>
       </c>
       <c r="N39">
-        <v>20.57337760925293</v>
+        <v>9.979248046875</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -3594,22 +3597,22 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I40">
         <v>100</v>
@@ -3618,16 +3621,16 @@
         <v>3</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>7.980585098266602</v>
       </c>
       <c r="M40">
-        <v>41.39804840087891</v>
+        <v>1.998662948608398</v>
       </c>
       <c r="N40">
-        <v>41.39804840087891</v>
+        <v>9.979248046875</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -3641,19 +3644,19 @@
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I41">
         <v>100</v>
@@ -3668,10 +3671,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>41.39804840087891</v>
+        <v>11.51871681213379</v>
       </c>
       <c r="N41">
-        <v>41.39804840087891</v>
+        <v>11.51871681213379</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -3682,13 +3685,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E42" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -3697,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="I42">
         <v>100</v>
@@ -3706,16 +3709,16 @@
         <v>3</v>
       </c>
       <c r="K42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>6.000041961669922</v>
+        <v>8.001089096069336</v>
       </c>
       <c r="M42">
-        <v>6.520986557006836</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>12.52102851867676</v>
+        <v>8.001089096069336</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -3726,19 +3729,19 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0.6</v>
@@ -3750,16 +3753,16 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L43">
-        <v>6.000041961669922</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>6.520986557006836</v>
+        <v>17.12965965270996</v>
       </c>
       <c r="N43">
-        <v>12.52102851867676</v>
+        <v>17.12965965270996</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -3773,19 +3776,19 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I44">
         <v>100</v>
@@ -3800,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>29.10232543945312</v>
+        <v>17.12965965270996</v>
       </c>
       <c r="N44">
-        <v>29.10232543945312</v>
+        <v>17.12965965270996</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -3814,22 +3817,22 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I45">
         <v>100</v>
@@ -3838,16 +3841,16 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>4.130125045776367</v>
       </c>
       <c r="M45">
-        <v>29.10232543945312</v>
+        <v>3.145694732666016</v>
       </c>
       <c r="N45">
-        <v>29.10232543945312</v>
+        <v>7.275819778442383</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -3858,22 +3861,22 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="I46">
         <v>100</v>
@@ -3885,13 +3888,13 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>12.46166229248047</v>
+        <v>4.130125045776367</v>
       </c>
       <c r="M46">
-        <v>16.99090003967285</v>
+        <v>3.145694732666016</v>
       </c>
       <c r="N46">
-        <v>29.45256233215332</v>
+        <v>7.275819778442383</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -3902,16 +3905,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -3926,16 +3929,16 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47">
-        <v>12.46166229248047</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>16.99090003967285</v>
+        <v>11.51871681213379</v>
       </c>
       <c r="N47">
-        <v>29.45256233215332</v>
+        <v>11.51871681213379</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3949,19 +3952,19 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48">
         <v>100</v>
@@ -3976,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>38.45810890197754</v>
+        <v>11.51871681213379</v>
       </c>
       <c r="N48">
-        <v>38.45810890197754</v>
+        <v>11.51871681213379</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -3990,22 +3993,22 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I49">
         <v>100</v>
@@ -4014,16 +4017,16 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="M49">
-        <v>38.45810890197754</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N49">
-        <v>38.45810890197754</v>
+        <v>5.999565124511719</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -4034,22 +4037,22 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E50" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I50">
         <v>100</v>
@@ -4061,13 +4064,13 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>7.121801376342773</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="M50">
-        <v>6.997585296630859</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N50">
-        <v>14.11938667297363</v>
+        <v>5.999565124511719</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -4078,40 +4081,172 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>100</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>9.000301361083984</v>
+      </c>
+      <c r="N51">
+        <v>9.000301361083984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" t="s">
         <v>16</v>
       </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>100</v>
-      </c>
-      <c r="J51">
-        <v>3</v>
-      </c>
-      <c r="K51">
-        <v>2</v>
-      </c>
-      <c r="L51">
-        <v>7.121801376342773</v>
-      </c>
-      <c r="M51">
-        <v>6.997585296630859</v>
-      </c>
-      <c r="N51">
-        <v>14.11938667297363</v>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>9.000301361083984</v>
+      </c>
+      <c r="N52">
+        <v>9.000301361083984</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>2.107143402099609</v>
+      </c>
+      <c r="M53">
+        <v>3.998517990112305</v>
+      </c>
+      <c r="N53">
+        <v>6.105661392211914</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>100</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>2.107143402099609</v>
+      </c>
+      <c r="M54">
+        <v>3.998517990112305</v>
+      </c>
+      <c r="N54">
+        <v>6.105661392211914</v>
       </c>
     </row>
   </sheetData>
@@ -4155,18 +4290,18 @@
         <v>15</v>
       </c>
       <c r="C2">
-        <v>0.9333333333333333</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D2">
-        <v>1.466666666666667</v>
+        <v>1.6</v>
       </c>
       <c r="E2">
-        <v>58.69894027709961</v>
+        <v>20.33271789550781</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>15</v>
@@ -4175,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.866666666666667</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="E3">
-        <v>25.39092699686686</v>
+        <v>8.379983901977539</v>
       </c>
     </row>
   </sheetData>
